--- a/result/NCDC_weather_data/stations_imputed/51463599999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/51463599999.xlsx
@@ -565,14 +565,18 @@
       <c r="M2" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O2" t="n">
         <v>57.2</v>
       </c>
       <c r="P2" t="n">
         <v>37.76</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
       <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -615,7 +619,9 @@
       <c r="M3" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O3" t="n">
         <v>63.68000000000001</v>
       </c>
@@ -667,7 +673,9 @@
       <c r="M4" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O4" t="n">
         <v>57.2</v>
       </c>
@@ -719,7 +727,9 @@
       <c r="M5" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O5" t="n">
         <v>70.16</v>
       </c>
@@ -771,7 +781,9 @@
       <c r="M6" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O6" t="n">
         <v>86.36</v>
       </c>
@@ -823,7 +835,9 @@
       <c r="M7" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O7" t="n">
         <v>70.16</v>
       </c>
@@ -875,7 +889,9 @@
       <c r="M8" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O8" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -927,7 +943,9 @@
       <c r="M9" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O9" t="n">
         <v>83.12</v>
       </c>
@@ -979,7 +997,9 @@
       <c r="M10" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O10" t="n">
         <v>63.68000000000001</v>
       </c>
@@ -1031,7 +1051,9 @@
       <c r="M11" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O11" t="n">
         <v>57.2</v>
       </c>
@@ -1083,7 +1105,9 @@
       <c r="M12" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O12" t="n">
         <v>60.44</v>
       </c>
@@ -1135,7 +1159,9 @@
       <c r="M13" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O13" t="n">
         <v>53.96</v>
       </c>
@@ -1187,7 +1213,9 @@
       <c r="M14" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O14" t="n">
         <v>63.68000000000001</v>
       </c>
@@ -1239,7 +1267,9 @@
       <c r="M15" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O15" t="n">
         <v>63.68000000000001</v>
       </c>
@@ -1291,7 +1321,9 @@
       <c r="M16" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O16" t="n">
         <v>50.72</v>
       </c>
@@ -1343,7 +1375,9 @@
       <c r="M17" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O17" t="n">
         <v>63.68000000000001</v>
       </c>
@@ -1395,7 +1429,9 @@
       <c r="M18" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O18" t="n">
         <v>83.12</v>
       </c>
@@ -1447,7 +1483,9 @@
       <c r="M19" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O19" t="n">
         <v>83.12</v>
       </c>
@@ -1499,7 +1537,9 @@
       <c r="M20" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O20" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -1551,7 +1591,9 @@
       <c r="M21" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O21" t="n">
         <v>83.12</v>
       </c>
@@ -1603,7 +1645,9 @@
       <c r="M22" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O22" t="n">
         <v>79.88</v>
       </c>
@@ -1655,7 +1699,9 @@
       <c r="M23" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O23" t="n">
         <v>76.64</v>
       </c>
@@ -1707,7 +1753,9 @@
       <c r="M24" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O24" t="n">
         <v>63.68000000000001</v>
       </c>
@@ -1759,7 +1807,9 @@
       <c r="M25" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O25" t="n">
         <v>63.68000000000001</v>
       </c>
@@ -1811,7 +1861,9 @@
       <c r="M26" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O26" t="n">
         <v>57.2</v>
       </c>
@@ -1863,7 +1915,9 @@
       <c r="M27" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O27" t="n">
         <v>53.96</v>
       </c>
@@ -1915,7 +1969,9 @@
       <c r="M28" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O28" t="n">
         <v>47.48</v>
       </c>
@@ -1967,7 +2023,9 @@
       <c r="M29" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O29" t="n">
         <v>41</v>
       </c>
@@ -2019,7 +2077,9 @@
       <c r="M30" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O30" t="n">
         <v>44.24</v>
       </c>
@@ -2071,7 +2131,9 @@
       <c r="M31" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O31" t="n">
         <v>47.48</v>
       </c>
@@ -2123,7 +2185,9 @@
       <c r="M32" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O32" t="n">
         <v>47.48</v>
       </c>
@@ -2175,7 +2239,9 @@
       <c r="M33" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O33" t="n">
         <v>44.24</v>
       </c>
@@ -2227,7 +2293,9 @@
       <c r="M34" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O34" t="n">
         <v>53.96</v>
       </c>
@@ -2279,7 +2347,9 @@
       <c r="M35" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O35" t="n">
         <v>50.72</v>
       </c>
@@ -2331,7 +2401,9 @@
       <c r="M36" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O36" t="n">
         <v>47.48</v>
       </c>
@@ -2383,7 +2455,9 @@
       <c r="M37" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O37" t="n">
         <v>47.48</v>
       </c>
@@ -2435,7 +2509,9 @@
       <c r="M38" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O38" t="n">
         <v>57.2</v>
       </c>
@@ -2487,7 +2563,9 @@
       <c r="M39" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O39" t="n">
         <v>76.64</v>
       </c>
@@ -2539,7 +2617,9 @@
       <c r="M40" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O40" t="n">
         <v>70.16</v>
       </c>
@@ -2591,7 +2671,9 @@
       <c r="M41" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O41" t="n">
         <v>60.44</v>
       </c>
@@ -2643,7 +2725,9 @@
       <c r="M42" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O42" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -2695,7 +2779,9 @@
       <c r="M43" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O43" t="n">
         <v>66.92</v>
       </c>
@@ -2747,7 +2833,9 @@
       <c r="M44" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O44" t="n">
         <v>63.68000000000001</v>
       </c>
@@ -2799,7 +2887,9 @@
       <c r="M45" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O45" t="n">
         <v>86.36</v>
       </c>
@@ -2851,7 +2941,9 @@
       <c r="M46" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O46" t="n">
         <v>70.16</v>
       </c>
@@ -2903,7 +2995,9 @@
       <c r="M47" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O47" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -2955,7 +3049,9 @@
       <c r="M48" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O48" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -3007,7 +3103,9 @@
       <c r="M49" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O49" t="n">
         <v>89.59999999999999</v>
       </c>
@@ -3059,7 +3157,9 @@
       <c r="M50" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O50" t="n">
         <v>60.44</v>
       </c>
@@ -3111,7 +3211,9 @@
       <c r="M51" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O51" t="n">
         <v>57.2</v>
       </c>
@@ -3163,7 +3265,9 @@
       <c r="M52" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O52" t="n">
         <v>63.68000000000001</v>
       </c>
@@ -3215,7 +3319,9 @@
       <c r="M53" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O53" t="n">
         <v>63.68000000000001</v>
       </c>
@@ -3267,7 +3373,9 @@
       <c r="M54" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O54" t="n">
         <v>66.92</v>
       </c>
@@ -3319,7 +3427,9 @@
       <c r="M55" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O55" t="n">
         <v>86.36</v>
       </c>
@@ -3371,7 +3481,9 @@
       <c r="M56" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O56" t="n">
         <v>89.59999999999999</v>
       </c>
@@ -3423,7 +3535,9 @@
       <c r="M57" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O57" t="n">
         <v>79.88</v>
       </c>
@@ -3475,7 +3589,9 @@
       <c r="M58" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O58" t="n">
         <v>89.59999999999999</v>
       </c>
@@ -3527,7 +3643,9 @@
       <c r="M59" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O59" t="n">
         <v>99.31999999999999</v>
       </c>
@@ -3579,7 +3697,9 @@
       <c r="M60" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O60" t="n">
         <v>70.16</v>
       </c>
@@ -3631,7 +3751,9 @@
       <c r="M61" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O61" t="n">
         <v>83.12</v>
       </c>
@@ -3683,7 +3805,9 @@
       <c r="M62" t="n">
         <v>4.012632</v>
       </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O62" t="n">
         <v>122</v>
       </c>
@@ -3735,7 +3859,9 @@
       <c r="M63" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O63" t="n">
         <v>115.52</v>
       </c>
@@ -3787,7 +3913,9 @@
       <c r="M64" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O64" t="n">
         <v>86.36</v>
       </c>
@@ -3839,7 +3967,9 @@
       <c r="M65" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O65" t="n">
         <v>109.04</v>
       </c>
@@ -3891,7 +4021,9 @@
       <c r="M66" t="n">
         <v>2.983752</v>
       </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O66" t="n">
         <v>99.31999999999999</v>
       </c>
@@ -3943,7 +4075,9 @@
       <c r="M67" t="n">
         <v>4.990068</v>
       </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="n">
+        <v>11.69386425</v>
+      </c>
       <c r="O67" t="n">
         <v>112.28</v>
       </c>
